--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf18-Fgfr1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf18-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,10 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.34351066313924</v>
+        <v>0.1814536666666667</v>
       </c>
       <c r="H2">
-        <v>5.34351066313924</v>
+        <v>0.544361</v>
       </c>
       <c r="I2">
-        <v>0.8197050661307325</v>
+        <v>0.02449781286002304</v>
       </c>
       <c r="J2">
-        <v>0.8197050661307325</v>
+        <v>0.02449781286002305</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.02706498420459</v>
+        <v>5.855348</v>
       </c>
       <c r="N2">
-        <v>3.02706498420459</v>
+        <v>17.566044</v>
       </c>
       <c r="O2">
-        <v>0.0302880962211871</v>
+        <v>0.05092948808292105</v>
       </c>
       <c r="P2">
-        <v>0.0302880962211871</v>
+        <v>0.05092948808292105</v>
       </c>
       <c r="Q2">
-        <v>16.17515402111264</v>
+        <v>1.062474364209333</v>
       </c>
       <c r="R2">
-        <v>16.17515402111264</v>
+        <v>9.562269277884001</v>
       </c>
       <c r="S2">
-        <v>0.02482730591596216</v>
+        <v>0.001247661068112173</v>
       </c>
       <c r="T2">
-        <v>0.02482730591596216</v>
+        <v>0.001247661068112174</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.34351066313924</v>
+        <v>0.1814536666666667</v>
       </c>
       <c r="H3">
-        <v>5.34351066313924</v>
+        <v>0.544361</v>
       </c>
       <c r="I3">
-        <v>0.8197050661307325</v>
+        <v>0.02449781286002304</v>
       </c>
       <c r="J3">
-        <v>0.8197050661307325</v>
+        <v>0.02449781286002305</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>62.3111351173628</v>
+        <v>62.99699166666667</v>
       </c>
       <c r="N3">
-        <v>62.3111351173628</v>
+        <v>188.990975</v>
       </c>
       <c r="O3">
-        <v>0.6234704791387192</v>
+        <v>0.547944295769846</v>
       </c>
       <c r="P3">
-        <v>0.6234704791387192</v>
+        <v>0.547944295769846</v>
       </c>
       <c r="Q3">
-        <v>332.9602149319381</v>
+        <v>11.43103512688611</v>
       </c>
       <c r="R3">
-        <v>332.9602149319381</v>
+        <v>102.879316141975</v>
       </c>
       <c r="S3">
-        <v>0.5110619103329633</v>
+        <v>0.0134234368154868</v>
       </c>
       <c r="T3">
-        <v>0.5110619103329633</v>
+        <v>0.01342343681548681</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.34351066313924</v>
+        <v>0.1814536666666667</v>
       </c>
       <c r="H4">
-        <v>5.34351066313924</v>
+        <v>0.544361</v>
       </c>
       <c r="I4">
-        <v>0.8197050661307325</v>
+        <v>0.02449781286002304</v>
       </c>
       <c r="J4">
-        <v>0.8197050661307325</v>
+        <v>0.02449781286002305</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.162500910178019</v>
+        <v>0.2640463333333333</v>
       </c>
       <c r="N4">
-        <v>0.162500910178019</v>
+        <v>0.792139</v>
       </c>
       <c r="O4">
-        <v>0.001625945669876531</v>
+        <v>0.002296660179179615</v>
       </c>
       <c r="P4">
-        <v>0.001625945669876531</v>
+        <v>0.002296660179179615</v>
       </c>
       <c r="Q4">
-        <v>0.8683253463060763</v>
+        <v>0.04791217535322222</v>
       </c>
       <c r="R4">
-        <v>0.8683253463060763</v>
+        <v>0.431209578179</v>
       </c>
       <c r="S4">
-        <v>0.00133279590285112</v>
+        <v>5.626315127260918E-05</v>
       </c>
       <c r="T4">
-        <v>0.00133279590285112</v>
+        <v>5.62631512726092E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>5.34351066313924</v>
+        <v>0.1814536666666667</v>
       </c>
       <c r="H5">
-        <v>5.34351066313924</v>
+        <v>0.544361</v>
       </c>
       <c r="I5">
-        <v>0.8197050661307325</v>
+        <v>0.02449781286002304</v>
       </c>
       <c r="J5">
-        <v>0.8197050661307325</v>
+        <v>0.02449781286002305</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.22034294483687</v>
+        <v>1.226170666666667</v>
       </c>
       <c r="N5">
-        <v>1.22034294483687</v>
+        <v>3.678512</v>
       </c>
       <c r="O5">
-        <v>0.01221046285062766</v>
+        <v>0.01066516360011862</v>
       </c>
       <c r="P5">
-        <v>0.01221046285062766</v>
+        <v>0.01066516360011862</v>
       </c>
       <c r="Q5">
-        <v>6.520915538422555</v>
+        <v>0.2224931634257778</v>
       </c>
       <c r="R5">
-        <v>6.520915538422555</v>
+        <v>2.002438470832</v>
       </c>
       <c r="S5">
-        <v>0.01000897825846059</v>
+        <v>0.0002612731819972356</v>
       </c>
       <c r="T5">
-        <v>0.01000897825846059</v>
+        <v>0.0002612731819972356</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>5.34351066313924</v>
+        <v>0.1814536666666667</v>
       </c>
       <c r="H6">
-        <v>5.34351066313924</v>
+        <v>0.544361</v>
       </c>
       <c r="I6">
-        <v>0.8197050661307325</v>
+        <v>0.02449781286002304</v>
       </c>
       <c r="J6">
-        <v>0.8197050661307325</v>
+        <v>0.02449781286002305</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.70903210099761</v>
+        <v>0.763133</v>
       </c>
       <c r="N6">
-        <v>0.70903210099761</v>
+        <v>2.289399</v>
       </c>
       <c r="O6">
-        <v>0.007094407490749337</v>
+        <v>0.006637687978440185</v>
       </c>
       <c r="P6">
-        <v>0.007094407490749337</v>
+        <v>0.006637687978440185</v>
       </c>
       <c r="Q6">
-        <v>3.788720592188747</v>
+        <v>0.1384732810043333</v>
       </c>
       <c r="R6">
-        <v>3.788720592188747</v>
+        <v>1.246259529039</v>
       </c>
       <c r="S6">
-        <v>0.005815321761363049</v>
+        <v>0.0001626088379190523</v>
       </c>
       <c r="T6">
-        <v>0.005815321761363049</v>
+        <v>0.0001626088379190524</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>5.34351066313924</v>
+        <v>0.1814536666666667</v>
       </c>
       <c r="H7">
-        <v>5.34351066313924</v>
+        <v>0.544361</v>
       </c>
       <c r="I7">
-        <v>0.8197050661307325</v>
+        <v>0.02449781286002304</v>
       </c>
       <c r="J7">
-        <v>0.8197050661307325</v>
+        <v>0.02449781286002305</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.5123225038424</v>
+        <v>43.864011</v>
       </c>
       <c r="N7">
-        <v>32.5123225038424</v>
+        <v>131.592033</v>
       </c>
       <c r="O7">
-        <v>0.3253106086288401</v>
+        <v>0.3815267043894945</v>
       </c>
       <c r="P7">
-        <v>0.3253106086288401</v>
+        <v>0.3815267043894945</v>
       </c>
       <c r="Q7">
-        <v>173.7299419827037</v>
+        <v>7.959285630657</v>
       </c>
       <c r="R7">
-        <v>173.7299419827037</v>
+        <v>71.63357067591301</v>
       </c>
       <c r="S7">
-        <v>0.2666587539591322</v>
+        <v>0.009346569805235167</v>
       </c>
       <c r="T7">
-        <v>0.2666587539591322</v>
+        <v>0.009346569805235169</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.41090624499716</v>
+        <v>5.449095666666666</v>
       </c>
       <c r="H8">
-        <v>0.41090624499716</v>
+        <v>16.347287</v>
       </c>
       <c r="I8">
-        <v>0.06303382775155719</v>
+        <v>0.7356749981998847</v>
       </c>
       <c r="J8">
-        <v>0.06303382775155719</v>
+        <v>0.7356749981998849</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.02706498420459</v>
+        <v>5.855348</v>
       </c>
       <c r="N8">
-        <v>3.02706498420459</v>
+        <v>17.566044</v>
       </c>
       <c r="O8">
-        <v>0.0302880962211871</v>
+        <v>0.05092948808292105</v>
       </c>
       <c r="P8">
-        <v>0.0302880962211871</v>
+        <v>0.05092948808292105</v>
       </c>
       <c r="Q8">
-        <v>1.243839906021895</v>
+        <v>31.90635141362533</v>
       </c>
       <c r="R8">
-        <v>1.243839906021895</v>
+        <v>287.157162722628</v>
       </c>
       <c r="S8">
-        <v>0.001909174640128898</v>
+        <v>0.03746755105372399</v>
       </c>
       <c r="T8">
-        <v>0.001909174640128898</v>
+        <v>0.037467551053724</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.41090624499716</v>
+        <v>5.449095666666666</v>
       </c>
       <c r="H9">
-        <v>0.41090624499716</v>
+        <v>16.347287</v>
       </c>
       <c r="I9">
-        <v>0.06303382775155719</v>
+        <v>0.7356749981998847</v>
       </c>
       <c r="J9">
-        <v>0.06303382775155719</v>
+        <v>0.7356749981998849</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.3111351173628</v>
+        <v>62.99699166666667</v>
       </c>
       <c r="N9">
-        <v>62.3111351173628</v>
+        <v>188.990975</v>
       </c>
       <c r="O9">
-        <v>0.6234704791387192</v>
+        <v>0.547944295769846</v>
       </c>
       <c r="P9">
-        <v>0.6234704791387192</v>
+        <v>0.547944295769846</v>
       </c>
       <c r="Q9">
-        <v>25.60403455258622</v>
+        <v>343.2766343038694</v>
       </c>
       <c r="R9">
-        <v>25.60403455258622</v>
+        <v>3089.489708734824</v>
       </c>
       <c r="S9">
-        <v>0.03929973079021086</v>
+        <v>0.4031089188041186</v>
       </c>
       <c r="T9">
-        <v>0.03929973079021086</v>
+        <v>0.4031089188041187</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.41090624499716</v>
+        <v>5.449095666666666</v>
       </c>
       <c r="H10">
-        <v>0.41090624499716</v>
+        <v>16.347287</v>
       </c>
       <c r="I10">
-        <v>0.06303382775155719</v>
+        <v>0.7356749981998847</v>
       </c>
       <c r="J10">
-        <v>0.06303382775155719</v>
+        <v>0.7356749981998849</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.162500910178019</v>
+        <v>0.2640463333333333</v>
       </c>
       <c r="N10">
-        <v>0.162500910178019</v>
+        <v>0.792139</v>
       </c>
       <c r="O10">
-        <v>0.001625945669876531</v>
+        <v>0.002296660179179615</v>
       </c>
       <c r="P10">
-        <v>0.001625945669876531</v>
+        <v>0.002296660179179615</v>
       </c>
       <c r="Q10">
-        <v>0.06677263880987055</v>
+        <v>1.438813730765889</v>
       </c>
       <c r="R10">
-        <v>0.06677263880987055</v>
+        <v>12.949323576893</v>
       </c>
       <c r="S10">
-        <v>0.0001024895792883875</v>
+        <v>0.00168959547318371</v>
       </c>
       <c r="T10">
-        <v>0.0001024895792883875</v>
+        <v>0.00168959547318371</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.41090624499716</v>
+        <v>5.449095666666666</v>
       </c>
       <c r="H11">
-        <v>0.41090624499716</v>
+        <v>16.347287</v>
       </c>
       <c r="I11">
-        <v>0.06303382775155719</v>
+        <v>0.7356749981998847</v>
       </c>
       <c r="J11">
-        <v>0.06303382775155719</v>
+        <v>0.7356749981998849</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.22034294483687</v>
+        <v>1.226170666666667</v>
       </c>
       <c r="N11">
-        <v>1.22034294483687</v>
+        <v>3.678512</v>
       </c>
       <c r="O11">
-        <v>0.01221046285062766</v>
+        <v>0.01066516360011862</v>
       </c>
       <c r="P11">
-        <v>0.01221046285062766</v>
+        <v>0.01066516360011862</v>
       </c>
       <c r="Q11">
-        <v>0.5014465370716946</v>
+        <v>6.681521266327111</v>
       </c>
       <c r="R11">
-        <v>0.5014465370716946</v>
+        <v>60.13369139694399</v>
       </c>
       <c r="S11">
-        <v>0.0007696722120932517</v>
+        <v>0.007846094212318742</v>
       </c>
       <c r="T11">
-        <v>0.0007696722120932517</v>
+        <v>0.007846094212318742</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.41090624499716</v>
+        <v>5.449095666666666</v>
       </c>
       <c r="H12">
-        <v>0.41090624499716</v>
+        <v>16.347287</v>
       </c>
       <c r="I12">
-        <v>0.06303382775155719</v>
+        <v>0.7356749981998847</v>
       </c>
       <c r="J12">
-        <v>0.06303382775155719</v>
+        <v>0.7356749981998849</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.70903210099761</v>
+        <v>0.763133</v>
       </c>
       <c r="N12">
-        <v>0.70903210099761</v>
+        <v>2.289399</v>
       </c>
       <c r="O12">
-        <v>0.007094407490749337</v>
+        <v>0.006637687978440185</v>
       </c>
       <c r="P12">
-        <v>0.007094407490749337</v>
+        <v>0.006637687978440185</v>
       </c>
       <c r="Q12">
-        <v>0.2913457182033751</v>
+        <v>4.158384723390332</v>
       </c>
       <c r="R12">
-        <v>0.2913457182033751</v>
+        <v>37.42546251051299</v>
       </c>
       <c r="S12">
-        <v>0.0004471876597712507</v>
+        <v>0.00488318109159038</v>
       </c>
       <c r="T12">
-        <v>0.0004471876597712507</v>
+        <v>0.004883181091590381</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.41090624499716</v>
+        <v>5.449095666666666</v>
       </c>
       <c r="H13">
-        <v>0.41090624499716</v>
+        <v>16.347287</v>
       </c>
       <c r="I13">
-        <v>0.06303382775155719</v>
+        <v>0.7356749981998847</v>
       </c>
       <c r="J13">
-        <v>0.06303382775155719</v>
+        <v>0.7356749981998849</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>32.5123225038424</v>
+        <v>43.864011</v>
       </c>
       <c r="N13">
-        <v>32.5123225038424</v>
+        <v>131.592033</v>
       </c>
       <c r="O13">
-        <v>0.3253106086288401</v>
+        <v>0.3815267043894945</v>
       </c>
       <c r="P13">
-        <v>0.3253106086288401</v>
+        <v>0.3815267043894945</v>
       </c>
       <c r="Q13">
-        <v>13.35951635619054</v>
+        <v>239.019192262719</v>
       </c>
       <c r="R13">
-        <v>13.35951635619054</v>
+        <v>2151.172730364471</v>
       </c>
       <c r="S13">
-        <v>0.02050557287006454</v>
+        <v>0.2806796575649493</v>
       </c>
       <c r="T13">
-        <v>0.02050557287006454</v>
+        <v>0.2806796575649494</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.764404170233046</v>
+        <v>0.2617743333333333</v>
       </c>
       <c r="H14">
-        <v>0.764404170233046</v>
+        <v>0.785323</v>
       </c>
       <c r="I14">
-        <v>0.1172611061177102</v>
+        <v>0.035341796875</v>
       </c>
       <c r="J14">
-        <v>0.1172611061177102</v>
+        <v>0.03534179687500001</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.02706498420459</v>
+        <v>5.855348</v>
       </c>
       <c r="N14">
-        <v>3.02706498420459</v>
+        <v>17.566044</v>
       </c>
       <c r="O14">
-        <v>0.0302880962211871</v>
+        <v>0.05092948808292105</v>
       </c>
       <c r="P14">
-        <v>0.0302880962211871</v>
+        <v>0.05092948808292105</v>
       </c>
       <c r="Q14">
-        <v>2.313901097492418</v>
+        <v>1.532779819134667</v>
       </c>
       <c r="R14">
-        <v>2.313901097492418</v>
+        <v>13.795018372212</v>
       </c>
       <c r="S14">
-        <v>0.00355161566509604</v>
+        <v>0.001799939622774329</v>
       </c>
       <c r="T14">
-        <v>0.00355161566509604</v>
+        <v>0.001799939622774329</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.764404170233046</v>
+        <v>0.2617743333333333</v>
       </c>
       <c r="H15">
-        <v>0.764404170233046</v>
+        <v>0.785323</v>
       </c>
       <c r="I15">
-        <v>0.1172611061177102</v>
+        <v>0.035341796875</v>
       </c>
       <c r="J15">
-        <v>0.1172611061177102</v>
+        <v>0.03534179687500001</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>62.3111351173628</v>
+        <v>62.99699166666667</v>
       </c>
       <c r="N15">
-        <v>62.3111351173628</v>
+        <v>188.990975</v>
       </c>
       <c r="O15">
-        <v>0.6234704791387192</v>
+        <v>0.547944295769846</v>
       </c>
       <c r="P15">
-        <v>0.6234704791387192</v>
+        <v>0.547944295769846</v>
       </c>
       <c r="Q15">
-        <v>47.63089153566693</v>
+        <v>16.49099549554722</v>
       </c>
       <c r="R15">
-        <v>47.63089153566693</v>
+        <v>148.418959459925</v>
       </c>
       <c r="S15">
-        <v>0.07310883801554501</v>
+        <v>0.01936533599991282</v>
       </c>
       <c r="T15">
-        <v>0.07310883801554501</v>
+        <v>0.01936533599991283</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.764404170233046</v>
+        <v>0.2617743333333333</v>
       </c>
       <c r="H16">
-        <v>0.764404170233046</v>
+        <v>0.785323</v>
       </c>
       <c r="I16">
-        <v>0.1172611061177102</v>
+        <v>0.035341796875</v>
       </c>
       <c r="J16">
-        <v>0.1172611061177102</v>
+        <v>0.03534179687500001</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.162500910178019</v>
+        <v>0.2640463333333333</v>
       </c>
       <c r="N16">
-        <v>0.162500910178019</v>
+        <v>0.792139</v>
       </c>
       <c r="O16">
-        <v>0.001625945669876531</v>
+        <v>0.002296660179179615</v>
       </c>
       <c r="P16">
-        <v>0.001625945669876531</v>
+        <v>0.002296660179179615</v>
       </c>
       <c r="Q16">
-        <v>0.1242163734067433</v>
+        <v>0.06912055287744444</v>
       </c>
       <c r="R16">
-        <v>0.1242163734067433</v>
+        <v>0.6220849758970001</v>
       </c>
       <c r="S16">
-        <v>0.0001906601877370233</v>
+        <v>8.116809754346706E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001906601877370233</v>
+        <v>8.116809754346707E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.764404170233046</v>
+        <v>0.2617743333333333</v>
       </c>
       <c r="H17">
-        <v>0.764404170233046</v>
+        <v>0.785323</v>
       </c>
       <c r="I17">
-        <v>0.1172611061177102</v>
+        <v>0.035341796875</v>
       </c>
       <c r="J17">
-        <v>0.1172611061177102</v>
+        <v>0.03534179687500001</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.22034294483687</v>
+        <v>1.226170666666667</v>
       </c>
       <c r="N17">
-        <v>1.22034294483687</v>
+        <v>3.678512</v>
       </c>
       <c r="O17">
-        <v>0.01221046285062766</v>
+        <v>0.01066516360011862</v>
       </c>
       <c r="P17">
-        <v>0.01221046285062766</v>
+        <v>0.01066516360011862</v>
       </c>
       <c r="Q17">
-        <v>0.9328352361477793</v>
+        <v>0.3209800088195556</v>
       </c>
       <c r="R17">
-        <v>0.9328352361477793</v>
+        <v>2.888820079376</v>
       </c>
       <c r="S17">
-        <v>0.001431812380073809</v>
+        <v>0.0003769260455940361</v>
       </c>
       <c r="T17">
-        <v>0.001431812380073809</v>
+        <v>0.0003769260455940361</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.764404170233046</v>
+        <v>0.2617743333333333</v>
       </c>
       <c r="H18">
-        <v>0.764404170233046</v>
+        <v>0.785323</v>
       </c>
       <c r="I18">
-        <v>0.1172611061177102</v>
+        <v>0.035341796875</v>
       </c>
       <c r="J18">
-        <v>0.1172611061177102</v>
+        <v>0.03534179687500001</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.70903210099761</v>
+        <v>0.763133</v>
       </c>
       <c r="N18">
-        <v>0.70903210099761</v>
+        <v>2.289399</v>
       </c>
       <c r="O18">
-        <v>0.007094407490749337</v>
+        <v>0.006637687978440185</v>
       </c>
       <c r="P18">
-        <v>0.007094407490749337</v>
+        <v>0.006637687978440185</v>
       </c>
       <c r="Q18">
-        <v>0.5419870948316714</v>
+        <v>0.1997686323196667</v>
       </c>
       <c r="R18">
-        <v>0.5419870948316714</v>
+        <v>1.797917690877</v>
       </c>
       <c r="S18">
-        <v>0.0008318980696150365</v>
+        <v>0.0002345878202536624</v>
       </c>
       <c r="T18">
-        <v>0.0008318980696150365</v>
+        <v>0.0002345878202536625</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.2617743333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.785323</v>
+      </c>
+      <c r="I19">
+        <v>0.035341796875</v>
+      </c>
+      <c r="J19">
+        <v>0.03534179687500001</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>43.864011</v>
+      </c>
+      <c r="N19">
+        <v>131.592033</v>
+      </c>
+      <c r="O19">
+        <v>0.3815267043894945</v>
+      </c>
+      <c r="P19">
+        <v>0.3815267043894945</v>
+      </c>
+      <c r="Q19">
+        <v>11.482472236851</v>
+      </c>
+      <c r="R19">
+        <v>103.342250131659</v>
+      </c>
+      <c r="S19">
+        <v>0.01348383928892169</v>
+      </c>
+      <c r="T19">
+        <v>0.01348383928892169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.5600663333333333</v>
+      </c>
+      <c r="H20">
+        <v>1.680199</v>
+      </c>
+      <c r="I20">
+        <v>0.0756137942828341</v>
+      </c>
+      <c r="J20">
+        <v>0.07561379428283413</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.855348</v>
+      </c>
+      <c r="N20">
+        <v>17.566044</v>
+      </c>
+      <c r="O20">
+        <v>0.05092948808292105</v>
+      </c>
+      <c r="P20">
+        <v>0.05092948808292105</v>
+      </c>
+      <c r="Q20">
+        <v>3.279383284750667</v>
+      </c>
+      <c r="R20">
+        <v>29.514449562756</v>
+      </c>
+      <c r="S20">
+        <v>0.003850971834832043</v>
+      </c>
+      <c r="T20">
+        <v>0.003850971834832045</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.5600663333333333</v>
+      </c>
+      <c r="H21">
+        <v>1.680199</v>
+      </c>
+      <c r="I21">
+        <v>0.0756137942828341</v>
+      </c>
+      <c r="J21">
+        <v>0.07561379428283413</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>62.99699166666667</v>
+      </c>
+      <c r="N21">
+        <v>188.990975</v>
+      </c>
+      <c r="O21">
+        <v>0.547944295769846</v>
+      </c>
+      <c r="P21">
+        <v>0.547944295769846</v>
+      </c>
+      <c r="Q21">
+        <v>35.28249413378055</v>
+      </c>
+      <c r="R21">
+        <v>317.542447204025</v>
+      </c>
+      <c r="S21">
+        <v>0.04143214725879354</v>
+      </c>
+      <c r="T21">
+        <v>0.04143214725879356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.5600663333333333</v>
+      </c>
+      <c r="H22">
+        <v>1.680199</v>
+      </c>
+      <c r="I22">
+        <v>0.0756137942828341</v>
+      </c>
+      <c r="J22">
+        <v>0.07561379428283413</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.2640463333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.792139</v>
+      </c>
+      <c r="O22">
+        <v>0.002296660179179615</v>
+      </c>
+      <c r="P22">
+        <v>0.002296660179179615</v>
+      </c>
+      <c r="Q22">
+        <v>0.1478834617401111</v>
+      </c>
+      <c r="R22">
+        <v>1.330951155661</v>
+      </c>
+      <c r="S22">
+        <v>0.0001736591903260643</v>
+      </c>
+      <c r="T22">
+        <v>0.0001736591903260643</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.5600663333333333</v>
+      </c>
+      <c r="H23">
+        <v>1.680199</v>
+      </c>
+      <c r="I23">
+        <v>0.0756137942828341</v>
+      </c>
+      <c r="J23">
+        <v>0.07561379428283413</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.226170666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.678512</v>
+      </c>
+      <c r="O23">
+        <v>0.01066516360011862</v>
+      </c>
+      <c r="P23">
+        <v>0.01066516360011862</v>
+      </c>
+      <c r="Q23">
+        <v>0.6867369093208889</v>
+      </c>
+      <c r="R23">
+        <v>6.180632183888</v>
+      </c>
+      <c r="S23">
+        <v>0.0008064334864521397</v>
+      </c>
+      <c r="T23">
+        <v>0.0008064334864521398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.5600663333333333</v>
+      </c>
+      <c r="H24">
+        <v>1.680199</v>
+      </c>
+      <c r="I24">
+        <v>0.0756137942828341</v>
+      </c>
+      <c r="J24">
+        <v>0.07561379428283413</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.763133</v>
+      </c>
+      <c r="N24">
+        <v>2.289399</v>
+      </c>
+      <c r="O24">
+        <v>0.006637687978440185</v>
+      </c>
+      <c r="P24">
+        <v>0.006637687978440185</v>
+      </c>
+      <c r="Q24">
+        <v>0.4274051011556667</v>
+      </c>
+      <c r="R24">
+        <v>3.846645910401</v>
+      </c>
+      <c r="S24">
+        <v>0.0005019007733154171</v>
+      </c>
+      <c r="T24">
+        <v>0.0005019007733154173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.5600663333333333</v>
+      </c>
+      <c r="H25">
+        <v>1.680199</v>
+      </c>
+      <c r="I25">
+        <v>0.0756137942828341</v>
+      </c>
+      <c r="J25">
+        <v>0.07561379428283413</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>43.864011</v>
+      </c>
+      <c r="N25">
+        <v>131.592033</v>
+      </c>
+      <c r="O25">
+        <v>0.3815267043894945</v>
+      </c>
+      <c r="P25">
+        <v>0.3815267043894945</v>
+      </c>
+      <c r="Q25">
+        <v>24.566755806063</v>
+      </c>
+      <c r="R25">
+        <v>221.100802254567</v>
+      </c>
+      <c r="S25">
+        <v>0.0288486817391149</v>
+      </c>
+      <c r="T25">
+        <v>0.02884868173911491</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1678953333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.503686</v>
+      </c>
+      <c r="I26">
+        <v>0.02266732070852534</v>
+      </c>
+      <c r="J26">
+        <v>0.02266732070852535</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.855348</v>
+      </c>
+      <c r="N26">
+        <v>17.566044</v>
+      </c>
+      <c r="O26">
+        <v>0.05092948808292105</v>
+      </c>
+      <c r="P26">
+        <v>0.05092948808292105</v>
+      </c>
+      <c r="Q26">
+        <v>0.9830856042426666</v>
+      </c>
+      <c r="R26">
+        <v>8.847770438184</v>
+      </c>
+      <c r="S26">
+        <v>0.001154435039896591</v>
+      </c>
+      <c r="T26">
+        <v>0.001154435039896591</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.1678953333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.503686</v>
+      </c>
+      <c r="I27">
+        <v>0.02266732070852534</v>
+      </c>
+      <c r="J27">
+        <v>0.02266732070852535</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>62.99699166666667</v>
+      </c>
+      <c r="N27">
+        <v>188.990975</v>
+      </c>
+      <c r="O27">
+        <v>0.547944295769846</v>
+      </c>
+      <c r="P27">
+        <v>0.547944295769846</v>
+      </c>
+      <c r="Q27">
+        <v>10.57690091487222</v>
+      </c>
+      <c r="R27">
+        <v>95.19210823384999</v>
+      </c>
+      <c r="S27">
+        <v>0.01242042908262217</v>
+      </c>
+      <c r="T27">
+        <v>0.01242042908262217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.764404170233046</v>
-      </c>
-      <c r="H19">
-        <v>0.764404170233046</v>
-      </c>
-      <c r="I19">
-        <v>0.1172611061177102</v>
-      </c>
-      <c r="J19">
-        <v>0.1172611061177102</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>32.5123225038424</v>
-      </c>
-      <c r="N19">
-        <v>32.5123225038424</v>
-      </c>
-      <c r="O19">
-        <v>0.3253106086288401</v>
-      </c>
-      <c r="P19">
-        <v>0.3253106086288401</v>
-      </c>
-      <c r="Q19">
-        <v>24.85255490589883</v>
-      </c>
-      <c r="R19">
-        <v>24.85255490589883</v>
-      </c>
-      <c r="S19">
-        <v>0.03814628179964333</v>
-      </c>
-      <c r="T19">
-        <v>0.03814628179964333</v>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.1678953333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.503686</v>
+      </c>
+      <c r="I28">
+        <v>0.02266732070852534</v>
+      </c>
+      <c r="J28">
+        <v>0.02266732070852535</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.2640463333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.792139</v>
+      </c>
+      <c r="O28">
+        <v>0.002296660179179615</v>
+      </c>
+      <c r="P28">
+        <v>0.002296660179179615</v>
+      </c>
+      <c r="Q28">
+        <v>0.04433214715044444</v>
+      </c>
+      <c r="R28">
+        <v>0.398989324354</v>
+      </c>
+      <c r="S28">
+        <v>5.20591328399636E-05</v>
+      </c>
+      <c r="T28">
+        <v>5.205913283996362E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.1678953333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.503686</v>
+      </c>
+      <c r="I29">
+        <v>0.02266732070852534</v>
+      </c>
+      <c r="J29">
+        <v>0.02266732070852535</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.226170666666667</v>
+      </c>
+      <c r="N29">
+        <v>3.678512</v>
+      </c>
+      <c r="O29">
+        <v>0.01066516360011862</v>
+      </c>
+      <c r="P29">
+        <v>0.01066516360011862</v>
+      </c>
+      <c r="Q29">
+        <v>0.2058683328035555</v>
+      </c>
+      <c r="R29">
+        <v>1.852814995232</v>
+      </c>
+      <c r="S29">
+        <v>0.0002417506837327795</v>
+      </c>
+      <c r="T29">
+        <v>0.0002417506837327795</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.1678953333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.503686</v>
+      </c>
+      <c r="I30">
+        <v>0.02266732070852534</v>
+      </c>
+      <c r="J30">
+        <v>0.02266732070852535</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.763133</v>
+      </c>
+      <c r="N30">
+        <v>2.289399</v>
+      </c>
+      <c r="O30">
+        <v>0.006637687978440185</v>
+      </c>
+      <c r="P30">
+        <v>0.006637687978440185</v>
+      </c>
+      <c r="Q30">
+        <v>0.1281264694126666</v>
+      </c>
+      <c r="R30">
+        <v>1.153138224714</v>
+      </c>
+      <c r="S30">
+        <v>0.0001504586021704269</v>
+      </c>
+      <c r="T30">
+        <v>0.000150458602170427</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.1678953333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.503686</v>
+      </c>
+      <c r="I31">
+        <v>0.02266732070852534</v>
+      </c>
+      <c r="J31">
+        <v>0.02266732070852535</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>43.864011</v>
+      </c>
+      <c r="N31">
+        <v>131.592033</v>
+      </c>
+      <c r="O31">
+        <v>0.3815267043894945</v>
+      </c>
+      <c r="P31">
+        <v>0.3815267043894945</v>
+      </c>
+      <c r="Q31">
+        <v>7.364562748182</v>
+      </c>
+      <c r="R31">
+        <v>66.281064733638</v>
+      </c>
+      <c r="S31">
+        <v>0.008648188167263416</v>
+      </c>
+      <c r="T31">
+        <v>0.008648188167263418</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.786648</v>
+      </c>
+      <c r="H32">
+        <v>2.359944</v>
+      </c>
+      <c r="I32">
+        <v>0.1062042770737327</v>
+      </c>
+      <c r="J32">
+        <v>0.1062042770737328</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>5.855348</v>
+      </c>
+      <c r="N32">
+        <v>17.566044</v>
+      </c>
+      <c r="O32">
+        <v>0.05092948808292105</v>
+      </c>
+      <c r="P32">
+        <v>0.05092948808292105</v>
+      </c>
+      <c r="Q32">
+        <v>4.606097793504</v>
+      </c>
+      <c r="R32">
+        <v>41.454880141536</v>
+      </c>
+      <c r="S32">
+        <v>0.005408929463581916</v>
+      </c>
+      <c r="T32">
+        <v>0.005408929463581917</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.786648</v>
+      </c>
+      <c r="H33">
+        <v>2.359944</v>
+      </c>
+      <c r="I33">
+        <v>0.1062042770737327</v>
+      </c>
+      <c r="J33">
+        <v>0.1062042770737328</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>62.99699166666667</v>
+      </c>
+      <c r="N33">
+        <v>188.990975</v>
+      </c>
+      <c r="O33">
+        <v>0.547944295769846</v>
+      </c>
+      <c r="P33">
+        <v>0.547944295769846</v>
+      </c>
+      <c r="Q33">
+        <v>49.5564575006</v>
+      </c>
+      <c r="R33">
+        <v>446.0081175054</v>
+      </c>
+      <c r="S33">
+        <v>0.05819402780891209</v>
+      </c>
+      <c r="T33">
+        <v>0.0581940278089121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.786648</v>
+      </c>
+      <c r="H34">
+        <v>2.359944</v>
+      </c>
+      <c r="I34">
+        <v>0.1062042770737327</v>
+      </c>
+      <c r="J34">
+        <v>0.1062042770737328</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.2640463333333333</v>
+      </c>
+      <c r="N34">
+        <v>0.792139</v>
+      </c>
+      <c r="O34">
+        <v>0.002296660179179615</v>
+      </c>
+      <c r="P34">
+        <v>0.002296660179179615</v>
+      </c>
+      <c r="Q34">
+        <v>0.207711520024</v>
+      </c>
+      <c r="R34">
+        <v>1.869403680216</v>
+      </c>
+      <c r="S34">
+        <v>0.0002439151340138004</v>
+      </c>
+      <c r="T34">
+        <v>0.0002439151340138005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.786648</v>
+      </c>
+      <c r="H35">
+        <v>2.359944</v>
+      </c>
+      <c r="I35">
+        <v>0.1062042770737327</v>
+      </c>
+      <c r="J35">
+        <v>0.1062042770737328</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.226170666666667</v>
+      </c>
+      <c r="N35">
+        <v>3.678512</v>
+      </c>
+      <c r="O35">
+        <v>0.01066516360011862</v>
+      </c>
+      <c r="P35">
+        <v>0.01066516360011862</v>
+      </c>
+      <c r="Q35">
+        <v>0.9645647025920001</v>
+      </c>
+      <c r="R35">
+        <v>8.681082323328001</v>
+      </c>
+      <c r="S35">
+        <v>0.001132685990023687</v>
+      </c>
+      <c r="T35">
+        <v>0.001132685990023687</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.786648</v>
+      </c>
+      <c r="H36">
+        <v>2.359944</v>
+      </c>
+      <c r="I36">
+        <v>0.1062042770737327</v>
+      </c>
+      <c r="J36">
+        <v>0.1062042770737328</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.763133</v>
+      </c>
+      <c r="N36">
+        <v>2.289399</v>
+      </c>
+      <c r="O36">
+        <v>0.006637687978440185</v>
+      </c>
+      <c r="P36">
+        <v>0.006637687978440185</v>
+      </c>
+      <c r="Q36">
+        <v>0.600317048184</v>
+      </c>
+      <c r="R36">
+        <v>5.402853433656</v>
+      </c>
+      <c r="S36">
+        <v>0.0007049508531912464</v>
+      </c>
+      <c r="T36">
+        <v>0.0007049508531912465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.786648</v>
+      </c>
+      <c r="H37">
+        <v>2.359944</v>
+      </c>
+      <c r="I37">
+        <v>0.1062042770737327</v>
+      </c>
+      <c r="J37">
+        <v>0.1062042770737328</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>43.864011</v>
+      </c>
+      <c r="N37">
+        <v>131.592033</v>
+      </c>
+      <c r="O37">
+        <v>0.3815267043894945</v>
+      </c>
+      <c r="P37">
+        <v>0.3815267043894945</v>
+      </c>
+      <c r="Q37">
+        <v>34.50553652512801</v>
+      </c>
+      <c r="R37">
+        <v>310.549828726152</v>
+      </c>
+      <c r="S37">
+        <v>0.04051976782401</v>
+      </c>
+      <c r="T37">
+        <v>0.04051976782401</v>
       </c>
     </row>
   </sheetData>
